--- a/rt4.xlsx
+++ b/rt4.xlsx
@@ -100,15 +100,6 @@
     <t>внешние устройства</t>
   </si>
   <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
     <t>In/Out</t>
   </si>
   <si>
@@ -122,6 +113,15 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q5</t>
   </si>
 </sst>
 </file>
@@ -1030,12 +1030,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1113,6 +1107,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,17 +1515,17 @@
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:23" ht="15.75" thickBot="1">
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="H3" t="str">
         <f>MID(H1,2,1)</f>
@@ -1595,7 +1595,7 @@
     <row r="4" spans="1:23" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="31"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1608,10 +1608,10 @@
       <c r="G4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="H4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="36"/>
       <c r="J4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1626,33 +1626,33 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A5" s="11">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="32" t="str">
+      <c r="C5" s="30" t="str">
         <f>DEC2BIN(A5,4)</f>
         <v>0000</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="10" t="str">
         <f t="shared" ref="D5:D20" si="1">MID($C5,1,1)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="str">
+      <c r="E5" s="11" t="str">
         <f t="shared" ref="E5:E20" si="2">MID($C5,2,1)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="F5" s="11" t="str">
         <f t="shared" ref="F5:F20" si="3">MID($C5,3,1)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="12" t="str">
         <f t="shared" ref="G5:G20" si="4">MID($C5,4,1)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="15" t="str">
+      <c r="H5" s="13" t="str">
         <f>H3</f>
         <v>7</v>
       </c>
@@ -1660,49 +1660,49 @@
         <f>HEX2BIN(H5,4)</f>
         <v>0111</v>
       </c>
-      <c r="J5" s="12" t="str">
+      <c r="J5" s="10" t="str">
         <f>MID($I5,1,1)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="str">
+      <c r="K5" s="11" t="str">
         <f t="shared" ref="K5:K20" si="5">MID(I5,2,1)</f>
         <v>1</v>
       </c>
-      <c r="L5" s="13" t="str">
+      <c r="L5" s="11" t="str">
         <f t="shared" ref="L5:L20" si="6">MID(I5,3,1)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="14" t="str">
+      <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M20" si="7">MID($I5,4,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="16">
-        <v>1</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="33" t="str">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="31" t="str">
         <f t="shared" ref="C6:C20" si="8">DEC2BIN(A6,4)</f>
         <v>0001</v>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="15" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="18" t="str">
+      <c r="E6" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="F6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G6" s="19" t="str">
+      <c r="G6" s="17" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="18" t="str">
         <f>I3</f>
         <v>7</v>
       </c>
@@ -1710,51 +1710,51 @@
         <f t="shared" ref="I6:I20" si="9">HEX2BIN(H6,4)</f>
         <v>0111</v>
       </c>
-      <c r="J6" s="17" t="str">
+      <c r="J6" s="15" t="str">
         <f t="shared" ref="J6:J20" si="10">MID(I6,1,1)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="16" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="16" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="17" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="34" t="str">
+      <c r="C7" s="32" t="str">
         <f t="shared" si="8"/>
         <v>0010</v>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="23" t="str">
+      <c r="E7" s="21" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="23" t="str">
+      <c r="F7" s="21" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G7" s="24" t="str">
+      <c r="G7" s="22" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H7" s="25" t="str">
+      <c r="H7" s="23" t="str">
         <f>J3</f>
         <v>2</v>
       </c>
@@ -1762,49 +1762,49 @@
         <f t="shared" si="9"/>
         <v>0010</v>
       </c>
-      <c r="J7" s="22" t="str">
+      <c r="J7" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K7" s="23" t="str">
+      <c r="K7" s="21" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L7" s="23" t="str">
+      <c r="L7" s="21" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M7" s="24" t="str">
+      <c r="M7" s="22" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="34" t="str">
+      <c r="B8" s="19"/>
+      <c r="C8" s="32" t="str">
         <f t="shared" si="8"/>
         <v>0011</v>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="23" t="str">
+      <c r="E8" s="21" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="23" t="str">
+      <c r="F8" s="21" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G8" s="24" t="str">
+      <c r="G8" s="22" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H8" s="25" t="str">
+      <c r="H8" s="23" t="str">
         <f>K3</f>
         <v>2</v>
       </c>
@@ -1812,51 +1812,51 @@
         <f t="shared" si="9"/>
         <v>0010</v>
       </c>
-      <c r="J8" s="22" t="str">
+      <c r="J8" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K8" s="23" t="str">
+      <c r="K8" s="21" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L8" s="23" t="str">
+      <c r="L8" s="21" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M8" s="24" t="str">
+      <c r="M8" s="22" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>4</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="31" t="str">
         <f t="shared" si="8"/>
         <v>0100</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="16" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="str">
+      <c r="F9" s="16" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="19" t="str">
+      <c r="G9" s="17" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="18" t="str">
         <f>L3</f>
         <v>9</v>
       </c>
@@ -1864,49 +1864,49 @@
         <f t="shared" si="9"/>
         <v>1001</v>
       </c>
-      <c r="J9" s="17" t="str">
+      <c r="J9" s="15" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K9" s="18" t="str">
+      <c r="K9" s="16" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L9" s="18" t="str">
+      <c r="L9" s="16" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M9" s="19" t="str">
+      <c r="M9" s="17" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>5</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="33" t="str">
+      <c r="B10" s="14"/>
+      <c r="C10" s="31" t="str">
         <f t="shared" si="8"/>
         <v>0101</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="16" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F10" s="18" t="str">
+      <c r="F10" s="16" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="19" t="str">
+      <c r="G10" s="17" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="18" t="str">
         <f>M3</f>
         <v>D</v>
       </c>
@@ -1914,51 +1914,51 @@
         <f t="shared" si="9"/>
         <v>1101</v>
       </c>
-      <c r="J10" s="17" t="str">
+      <c r="J10" s="15" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K10" s="18" t="str">
+      <c r="K10" s="16" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L10" s="18" t="str">
+      <c r="L10" s="16" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M10" s="19" t="str">
+      <c r="M10" s="17" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>6</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="34" t="str">
+      <c r="C11" s="32" t="str">
         <f t="shared" si="8"/>
         <v>0110</v>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="23" t="str">
+      <c r="E11" s="21" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F11" s="23" t="str">
+      <c r="F11" s="21" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="str">
+      <c r="G11" s="22" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H11" s="25" t="str">
+      <c r="H11" s="23" t="str">
         <f>N3</f>
         <v>9</v>
       </c>
@@ -1966,49 +1966,49 @@
         <f t="shared" si="9"/>
         <v>1001</v>
       </c>
-      <c r="J11" s="22" t="str">
+      <c r="J11" s="20" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K11" s="23" t="str">
+      <c r="K11" s="21" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="23" t="str">
+      <c r="L11" s="21" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M11" s="24" t="str">
+      <c r="M11" s="22" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>7</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="34" t="str">
+      <c r="B12" s="19"/>
+      <c r="C12" s="32" t="str">
         <f t="shared" si="8"/>
         <v>0111</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="23" t="str">
+      <c r="E12" s="21" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F12" s="23" t="str">
+      <c r="F12" s="21" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G12" s="24" t="str">
+      <c r="G12" s="22" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H12" s="25" t="str">
+      <c r="H12" s="23" t="str">
         <f>O3</f>
         <v>D</v>
       </c>
@@ -2016,51 +2016,51 @@
         <f t="shared" si="9"/>
         <v>1101</v>
       </c>
-      <c r="J12" s="22" t="str">
+      <c r="J12" s="20" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K12" s="23" t="str">
+      <c r="K12" s="21" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L12" s="23" t="str">
+      <c r="L12" s="21" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M12" s="24" t="str">
+      <c r="M12" s="22" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>8</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="33" t="str">
+      <c r="C13" s="31" t="str">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="E13" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="18" t="str">
+      <c r="F13" s="16" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="17" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="18" t="str">
         <f>P3</f>
         <v>9</v>
       </c>
@@ -2068,49 +2068,49 @@
         <f t="shared" si="9"/>
         <v>1001</v>
       </c>
-      <c r="J13" s="17" t="str">
+      <c r="J13" s="15" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K13" s="18" t="str">
+      <c r="K13" s="16" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L13" s="18" t="str">
+      <c r="L13" s="16" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="17" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>9</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="33" t="str">
+      <c r="B14" s="14"/>
+      <c r="C14" s="31" t="str">
         <f t="shared" si="8"/>
         <v>1001</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="15" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="16" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="18" t="str">
+      <c r="F14" s="16" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G14" s="19" t="str">
+      <c r="G14" s="17" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="18" t="str">
         <f>Q3</f>
         <v>D</v>
       </c>
@@ -2118,51 +2118,51 @@
         <f t="shared" si="9"/>
         <v>1101</v>
       </c>
-      <c r="J14" s="17" t="str">
+      <c r="J14" s="15" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K14" s="18" t="str">
+      <c r="K14" s="16" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L14" s="18" t="str">
+      <c r="L14" s="16" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="17" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="34" t="str">
+      <c r="C15" s="32" t="str">
         <f t="shared" si="8"/>
         <v>1010</v>
       </c>
-      <c r="D15" s="22" t="str">
+      <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="21" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="23" t="str">
+      <c r="F15" s="21" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G15" s="24" t="str">
+      <c r="G15" s="22" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H15" s="25" t="str">
+      <c r="H15" s="23" t="str">
         <f>R3</f>
         <v>9</v>
       </c>
@@ -2170,49 +2170,49 @@
         <f t="shared" si="9"/>
         <v>1001</v>
       </c>
-      <c r="J15" s="22" t="str">
+      <c r="J15" s="20" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K15" s="23" t="str">
+      <c r="K15" s="21" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L15" s="23" t="str">
+      <c r="L15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M15" s="24" t="str">
+      <c r="M15" s="22" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>11</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="34" t="str">
+      <c r="B16" s="19"/>
+      <c r="C16" s="32" t="str">
         <f t="shared" si="8"/>
         <v>1011</v>
       </c>
-      <c r="D16" s="22" t="str">
+      <c r="D16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E16" s="23" t="str">
+      <c r="E16" s="21" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="23" t="str">
+      <c r="F16" s="21" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G16" s="24" t="str">
+      <c r="G16" s="22" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H16" s="25" t="str">
+      <c r="H16" s="23" t="str">
         <f>S3</f>
         <v>2</v>
       </c>
@@ -2220,51 +2220,51 @@
         <f t="shared" si="9"/>
         <v>0010</v>
       </c>
-      <c r="J16" s="22" t="str">
+      <c r="J16" s="20" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K16" s="23" t="str">
+      <c r="K16" s="21" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L16" s="23" t="str">
+      <c r="L16" s="21" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M16" s="24" t="str">
+      <c r="M16" s="22" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>12</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="33" t="str">
+      <c r="C17" s="31" t="str">
         <f t="shared" si="8"/>
         <v>1100</v>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="15" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E17" s="18" t="str">
+      <c r="E17" s="16" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F17" s="18" t="str">
+      <c r="F17" s="16" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G17" s="19" t="str">
+      <c r="G17" s="17" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="18" t="str">
         <f>T3</f>
         <v>9</v>
       </c>
@@ -2272,49 +2272,49 @@
         <f t="shared" si="9"/>
         <v>1001</v>
       </c>
-      <c r="J17" s="17" t="str">
+      <c r="J17" s="15" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K17" s="18" t="str">
+      <c r="K17" s="16" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L17" s="18" t="str">
+      <c r="L17" s="16" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M17" s="19" t="str">
+      <c r="M17" s="17" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>13</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="33" t="str">
+      <c r="B18" s="14"/>
+      <c r="C18" s="31" t="str">
         <f t="shared" si="8"/>
         <v>1101</v>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="15" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E18" s="18" t="str">
+      <c r="E18" s="16" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F18" s="18" t="str">
+      <c r="F18" s="16" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G18" s="19" t="str">
+      <c r="G18" s="17" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="18" t="str">
         <f>U3</f>
         <v>6</v>
       </c>
@@ -2322,51 +2322,51 @@
         <f t="shared" si="9"/>
         <v>0110</v>
       </c>
-      <c r="J18" s="17" t="str">
+      <c r="J18" s="15" t="str">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K18" s="18" t="str">
+      <c r="K18" s="16" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L18" s="18" t="str">
+      <c r="L18" s="16" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M18" s="19" t="str">
+      <c r="M18" s="17" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>14</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="34" t="str">
+      <c r="C19" s="32" t="str">
         <f t="shared" si="8"/>
         <v>1110</v>
       </c>
-      <c r="D19" s="22" t="str">
+      <c r="D19" s="20" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E19" s="23" t="str">
+      <c r="E19" s="21" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F19" s="23" t="str">
+      <c r="F19" s="21" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G19" s="24" t="str">
+      <c r="G19" s="22" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H19" s="25" t="str">
+      <c r="H19" s="23" t="str">
         <f>V3</f>
         <v>9</v>
       </c>
@@ -2374,49 +2374,49 @@
         <f t="shared" si="9"/>
         <v>1001</v>
       </c>
-      <c r="J19" s="22" t="str">
+      <c r="J19" s="20" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K19" s="23" t="str">
+      <c r="K19" s="21" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L19" s="23" t="str">
+      <c r="L19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M19" s="24" t="str">
+      <c r="M19" s="22" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A20" s="26">
+      <c r="A20" s="24">
         <v>15</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="35" t="str">
+      <c r="B20" s="24"/>
+      <c r="C20" s="33" t="str">
         <f t="shared" si="8"/>
         <v>1111</v>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="25" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E20" s="28" t="str">
+      <c r="E20" s="26" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F20" s="28" t="str">
+      <c r="F20" s="26" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G20" s="29" t="str">
+      <c r="G20" s="27" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H20" s="28" t="str">
         <f>W3</f>
         <v>D</v>
       </c>
@@ -2424,19 +2424,19 @@
         <f t="shared" si="9"/>
         <v>1101</v>
       </c>
-      <c r="J20" s="27" t="str">
+      <c r="J20" s="25" t="str">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="K20" s="28" t="str">
+      <c r="K20" s="26" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L20" s="28" t="str">
+      <c r="L20" s="26" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="29" t="str">
+      <c r="M20" s="27" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -2513,13 +2513,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
